--- a/Resources/2009/Basic_Percentile_2009.xlsx
+++ b/Resources/2009/Basic_Percentile_2009.xlsx
@@ -1444,7 +1444,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Andris Biedrins</t>
@@ -1489,7 +1489,7 @@
     <t>Paul Millsap</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Rudy Gay</t>
@@ -1516,7 +1516,7 @@
     <t>Monta Ellis</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Boris Diaw</t>
@@ -1537,7 +1537,7 @@
     <t>Troy Murphy</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Rasheed Wallace</t>
@@ -1555,7 +1555,7 @@
     <t>David Lee</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Josh Howard</t>
@@ -1690,7 +1690,7 @@
     <t>Anderson Varejao</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Corey Maggette</t>
@@ -1720,7 +1720,7 @@
     <t>Jamario Moon</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Andrew Bogut</t>
@@ -1849,7 +1849,7 @@
     <t>Anthony Carter</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Chris Duhon</t>
@@ -1990,7 +1990,7 @@
     <t>Sean Williams</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Jordan Farmar</t>
